--- a/Excel/StartZoneConfig.xlsx
+++ b/Excel/StartZoneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A21B4B-0BDC-4383-B79D-2A01CB7B7975}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743EA4A0-6DC3-46B4-9772-E17578290B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>mongodb://127.0.0.1:27017/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +141,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,11 +446,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -456,7 +459,12 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -467,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -478,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -489,7 +497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -500,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
